--- a/실무_엑셀_예제_파일/Chapter07/07-002.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-002.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E0F0AC-80A3-4DAE-8AEA-A153F7C30649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6719937C-1FF5-4AE9-9488-D7B1A2411A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2604" yWindow="564" windowWidth="14772" windowHeight="13692" xr2:uid="{323CDD4E-E926-467D-9F79-E1581FA9C628}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{323CDD4E-E926-467D-9F79-E1581FA9C628}"/>
   </bookViews>
   <sheets>
     <sheet name="만족도조사" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -762,18 +753,18 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.08203125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="24.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
@@ -782,36 +773,45 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F4" s="1">
+        <f>MAX(F9:F20)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F5" s="2">
+        <f>MIN(F9:F20)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F6" s="3">
+        <f>SMALL(F9:F20,2)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -853,9 +853,12 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I9" s="5">
+        <f>LARGE(F9:F20,H9)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -874,9 +877,12 @@
       <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I10" s="5">
+        <f>LARGE(F9:F21,H10)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -895,9 +901,12 @@
       <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I11" s="5">
+        <f>LARGE(F9:F22,H11)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
@@ -916,9 +925,12 @@
       <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I12" s="5">
+        <f>LARGE(F9:F23,H12)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -937,9 +949,12 @@
       <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I13" s="5">
+        <f>LARGE(F9:F24,H13)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -956,7 +971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -973,7 +988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1024,7 +1039,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1056,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
